--- a/biology/Histoire de la zoologie et de la botanique/Max_Johann_Sigismund_Schultze/Max_Johann_Sigismund_Schultze.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Max_Johann_Sigismund_Schultze/Max_Johann_Sigismund_Schultze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Max Johann Sigismund Schultze (25 mars 1825 – 16 janvier 1874 à Bonn) est un  biologiste  allemand spécialisé dans l'étude de l'anatomie des micro-organismes. Il est plus particulièrement connu pour ses travaux sur la théorie cellulaire. Il a synthétisé les travaux de Félix Dujardin (1801-1860) et ceux de Hugo von Mohl (1805-1872) au sein d'une théorie définissant le Protoplasme[1] comme élément fondamental de la cellule. Il a avec son travail fait avancer la méthode de la recherche scientifique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max Johann Sigismund Schultze (25 mars 1825 – 16 janvier 1874 à Bonn) est un  biologiste  allemand spécialisé dans l'étude de l'anatomie des micro-organismes. Il est plus particulièrement connu pour ses travaux sur la théorie cellulaire. Il a synthétisé les travaux de Félix Dujardin (1801-1860) et ceux de Hugo von Mohl (1805-1872) au sein d'une théorie définissant le Protoplasme comme élément fondamental de la cellule. Il a avec son travail fait avancer la méthode de la recherche scientifique.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alors que son père est médecin et professeur d'anatomie et de physiologie à Fribourg puis à Greifswald à partir de 1830, il commence ses études de médecine en 1845 à l’université de Greifswald où il suit notamment les cours de Johannes Peter Müller (1801-1858). Après un emploi à l'institut de Greiswald, il travaille à l'université Martin-Luther de Halle-Wittemberg et l'université de Bonn à partir de 1854.
 En 1865, il participe entre autres aux éditions de la revue Archiv für mikroskopische Anatomie.
@@ -543,13 +557,15 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Beiträge zur Naturgeschichte der Turbellarien (1851)
 Uber den Organismus der Polythalamien (1854)
 Beiträge zur Kenntnis der Landplanarien (1857)
 Zur Kenntnis der elektrischen Organe der Fische (1858)
-Ein heizbarer Objecttisch und seine Verwendung bei Untersuchungen des Blutes[2] (1865, dans lequel on trouve la première descriptions des Thrombocyte)
+Ein heizbarer Objecttisch und seine Verwendung bei Untersuchungen des Blutes (1865, dans lequel on trouve la première descriptions des Thrombocyte)
 Zur Anatomie und Physiologie der Retina (1866)</t>
         </is>
       </c>
